--- a/upload/import_kelulusan.xlsx
+++ b/upload/import_kelulusan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\websmkmuda\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -105,9 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,26 +393,27 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13" style="3" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="62" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -424,13 +427,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>123</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>31245</v>
       </c>
       <c r="D2" t="s">
@@ -447,13 +450,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>1234</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>31245</v>
       </c>
       <c r="D3" t="s">
